--- a/RQ2&RQ3/taxonomy of database access bugs.xlsx
+++ b/RQ2&RQ3/taxonomy of database access bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\projects\empirical-db-issue-paper\open data\RQ2&amp;RQ3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D152BB95-47CD-4F7C-B020-464BC2E1AAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36102FC0-82D8-44E0-8102-931F269769EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1321,9 +1321,6 @@
     <t>Configuration</t>
   </si>
   <si>
-    <t>Violation of constraint</t>
-  </si>
-  <si>
     <t>Invalid modification of schema</t>
   </si>
   <si>
@@ -1418,6 +1415,9 @@
   </si>
   <si>
     <t>Incorrect entity object conversion</t>
+  </si>
+  <si>
+    <t>Violation of database constraint</t>
   </si>
 </sst>
 </file>
@@ -1853,7 +1853,7 @@
   <dimension ref="A1:E424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D431" sqref="D431"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -1896,12 +1896,12 @@
         <v>428</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
@@ -1913,12 +1913,12 @@
         <v>428</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -1930,12 +1930,12 @@
         <v>428</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>8</v>
@@ -1947,12 +1947,12 @@
         <v>428</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
@@ -1964,12 +1964,12 @@
         <v>428</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>10</v>
@@ -1981,12 +1981,12 @@
         <v>428</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
@@ -1998,12 +1998,12 @@
         <v>428</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>12</v>
@@ -2015,12 +2015,12 @@
         <v>428</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>13</v>
@@ -2032,12 +2032,12 @@
         <v>428</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>14</v>
@@ -2049,12 +2049,12 @@
         <v>428</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>15</v>
@@ -2066,12 +2066,12 @@
         <v>428</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>16</v>
@@ -2083,12 +2083,12 @@
         <v>428</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>17</v>
@@ -2100,12 +2100,12 @@
         <v>428</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>18</v>
@@ -2117,12 +2117,12 @@
         <v>428</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>19</v>
@@ -2134,12 +2134,12 @@
         <v>428</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>20</v>
@@ -2151,12 +2151,12 @@
         <v>428</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>21</v>
@@ -2168,12 +2168,12 @@
         <v>428</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>22</v>
@@ -2185,12 +2185,12 @@
         <v>428</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>23</v>
@@ -2202,12 +2202,12 @@
         <v>428</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>24</v>
@@ -2219,12 +2219,12 @@
         <v>428</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>25</v>
@@ -2236,12 +2236,12 @@
         <v>428</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>26</v>
@@ -2253,12 +2253,12 @@
         <v>428</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>27</v>
@@ -2270,12 +2270,12 @@
         <v>428</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>28</v>
@@ -2287,12 +2287,12 @@
         <v>428</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>29</v>
@@ -2304,12 +2304,12 @@
         <v>428</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>30</v>
@@ -2321,12 +2321,12 @@
         <v>428</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>31</v>
@@ -2338,12 +2338,12 @@
         <v>428</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>32</v>
@@ -2355,12 +2355,12 @@
         <v>428</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>33</v>
@@ -2372,12 +2372,12 @@
         <v>428</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>34</v>
@@ -2389,12 +2389,12 @@
         <v>428</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>35</v>
@@ -2406,12 +2406,12 @@
         <v>428</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>36</v>
@@ -2423,12 +2423,12 @@
         <v>428</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>37</v>
@@ -2440,12 +2440,12 @@
         <v>428</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>38</v>
@@ -2457,12 +2457,12 @@
         <v>428</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>39</v>
@@ -2474,12 +2474,12 @@
         <v>428</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>40</v>
@@ -2491,12 +2491,12 @@
         <v>428</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>41</v>
@@ -2508,12 +2508,12 @@
         <v>428</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>42</v>
@@ -2525,12 +2525,12 @@
         <v>428</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>43</v>
@@ -2542,12 +2542,12 @@
         <v>428</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>44</v>
@@ -2559,12 +2559,12 @@
         <v>428</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>45</v>
@@ -2576,12 +2576,12 @@
         <v>428</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>46</v>
@@ -2593,12 +2593,12 @@
         <v>428</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>47</v>
@@ -2610,12 +2610,12 @@
         <v>428</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>48</v>
@@ -2627,12 +2627,12 @@
         <v>428</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>49</v>
@@ -2644,12 +2644,12 @@
         <v>428</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>50</v>
@@ -2661,12 +2661,12 @@
         <v>428</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>51</v>
@@ -2678,12 +2678,12 @@
         <v>428</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>52</v>
@@ -2695,12 +2695,12 @@
         <v>428</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>53</v>
@@ -2712,12 +2712,12 @@
         <v>428</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>54</v>
@@ -2729,12 +2729,12 @@
         <v>428</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>55</v>
@@ -2746,12 +2746,12 @@
         <v>428</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>56</v>
@@ -2763,12 +2763,12 @@
         <v>428</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>57</v>
@@ -2780,12 +2780,12 @@
         <v>428</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>58</v>
@@ -2797,12 +2797,12 @@
         <v>428</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>59</v>
@@ -2814,12 +2814,12 @@
         <v>428</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>60</v>
@@ -2831,12 +2831,12 @@
         <v>428</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>61</v>
@@ -2848,12 +2848,12 @@
         <v>428</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>62</v>
@@ -2865,12 +2865,12 @@
         <v>428</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>63</v>
@@ -2882,12 +2882,12 @@
         <v>428</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>64</v>
@@ -2899,12 +2899,12 @@
         <v>428</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>65</v>
@@ -2916,12 +2916,12 @@
         <v>428</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>66</v>
@@ -2933,12 +2933,12 @@
         <v>428</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>67</v>
@@ -2950,12 +2950,12 @@
         <v>428</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>68</v>
@@ -2967,12 +2967,12 @@
         <v>428</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>69</v>
@@ -2984,12 +2984,12 @@
         <v>428</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>70</v>
@@ -3001,12 +3001,12 @@
         <v>428</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>71</v>
@@ -3018,12 +3018,12 @@
         <v>428</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>72</v>
@@ -3035,12 +3035,12 @@
         <v>428</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>73</v>
@@ -3052,12 +3052,12 @@
         <v>428</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>74</v>
@@ -3069,12 +3069,12 @@
         <v>428</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>75</v>
@@ -3086,12 +3086,12 @@
         <v>428</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>76</v>
@@ -3103,12 +3103,12 @@
         <v>428</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>77</v>
@@ -3120,12 +3120,12 @@
         <v>428</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>78</v>
@@ -3137,12 +3137,12 @@
         <v>428</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>79</v>
@@ -3154,12 +3154,12 @@
         <v>428</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>80</v>
@@ -3171,12 +3171,12 @@
         <v>428</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>81</v>
@@ -3188,12 +3188,12 @@
         <v>428</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>82</v>
@@ -3205,12 +3205,12 @@
         <v>428</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>83</v>
@@ -3222,12 +3222,12 @@
         <v>428</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>84</v>
@@ -3239,12 +3239,12 @@
         <v>428</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>85</v>
@@ -3256,12 +3256,12 @@
         <v>428</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>86</v>
@@ -3273,12 +3273,12 @@
         <v>428</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>87</v>
@@ -3290,12 +3290,12 @@
         <v>428</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>88</v>
@@ -3307,12 +3307,12 @@
         <v>428</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>89</v>
@@ -3324,12 +3324,12 @@
         <v>428</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>90</v>
@@ -3341,12 +3341,12 @@
         <v>428</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>91</v>
@@ -3358,12 +3358,12 @@
         <v>428</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>92</v>
@@ -3375,12 +3375,12 @@
         <v>428</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>93</v>
@@ -3392,12 +3392,12 @@
         <v>428</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>94</v>
@@ -3409,12 +3409,12 @@
         <v>428</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>95</v>
@@ -3426,12 +3426,12 @@
         <v>428</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>96</v>
@@ -3443,12 +3443,12 @@
         <v>428</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>97</v>
@@ -3460,12 +3460,12 @@
         <v>428</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>98</v>
@@ -3477,12 +3477,12 @@
         <v>428</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>99</v>
@@ -3494,12 +3494,12 @@
         <v>428</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>100</v>
@@ -3511,12 +3511,12 @@
         <v>429</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>101</v>
@@ -3528,12 +3528,12 @@
         <v>429</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>102</v>
@@ -3545,12 +3545,12 @@
         <v>429</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>103</v>
@@ -3562,12 +3562,12 @@
         <v>429</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>104</v>
@@ -3579,12 +3579,12 @@
         <v>429</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>105</v>
@@ -3596,12 +3596,12 @@
         <v>429</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>106</v>
@@ -3613,12 +3613,12 @@
         <v>429</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>107</v>
@@ -3630,12 +3630,12 @@
         <v>429</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>108</v>
@@ -3647,12 +3647,12 @@
         <v>429</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>109</v>
@@ -3664,12 +3664,12 @@
         <v>429</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>110</v>
@@ -3681,12 +3681,12 @@
         <v>429</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>111</v>
@@ -3698,12 +3698,12 @@
         <v>429</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>112</v>
@@ -3715,12 +3715,12 @@
         <v>429</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>113</v>
@@ -3732,12 +3732,12 @@
         <v>429</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>114</v>
@@ -3749,12 +3749,12 @@
         <v>429</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>115</v>
@@ -3766,12 +3766,12 @@
         <v>429</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>116</v>
@@ -3783,12 +3783,12 @@
         <v>429</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>117</v>
@@ -3800,12 +3800,12 @@
         <v>429</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>118</v>
@@ -3817,12 +3817,12 @@
         <v>429</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>119</v>
@@ -3834,12 +3834,12 @@
         <v>429</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>120</v>
@@ -3851,12 +3851,12 @@
         <v>429</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>121</v>
@@ -3868,12 +3868,12 @@
         <v>429</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>122</v>
@@ -3885,12 +3885,12 @@
         <v>429</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>123</v>
@@ -3902,12 +3902,12 @@
         <v>429</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>124</v>
@@ -3919,12 +3919,12 @@
         <v>429</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>125</v>
@@ -3936,12 +3936,12 @@
         <v>429</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>126</v>
@@ -3953,12 +3953,12 @@
         <v>429</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>127</v>
@@ -3970,12 +3970,12 @@
         <v>429</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>128</v>
@@ -3987,12 +3987,12 @@
         <v>429</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>129</v>
@@ -4004,12 +4004,12 @@
         <v>429</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>130</v>
@@ -4021,12 +4021,12 @@
         <v>429</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>131</v>
@@ -4038,12 +4038,12 @@
         <v>429</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>132</v>
@@ -4055,12 +4055,12 @@
         <v>429</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>133</v>
@@ -4072,12 +4072,12 @@
         <v>429</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>134</v>
@@ -4089,12 +4089,12 @@
         <v>429</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>135</v>
@@ -4106,12 +4106,12 @@
         <v>429</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>136</v>
@@ -4123,12 +4123,12 @@
         <v>429</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>137</v>
@@ -4140,12 +4140,12 @@
         <v>429</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>138</v>
@@ -4157,12 +4157,12 @@
         <v>429</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>139</v>
@@ -4174,12 +4174,12 @@
         <v>429</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>140</v>
@@ -4191,12 +4191,12 @@
         <v>429</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>141</v>
@@ -4208,12 +4208,12 @@
         <v>429</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>142</v>
@@ -4225,12 +4225,12 @@
         <v>429</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>143</v>
@@ -4242,12 +4242,12 @@
         <v>429</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>144</v>
@@ -4259,12 +4259,12 @@
         <v>429</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>145</v>
@@ -4276,12 +4276,12 @@
         <v>429</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>146</v>
@@ -4293,12 +4293,12 @@
         <v>429</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>147</v>
@@ -4310,12 +4310,12 @@
         <v>429</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>148</v>
@@ -4327,12 +4327,12 @@
         <v>429</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>149</v>
@@ -4344,12 +4344,12 @@
         <v>429</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>150</v>
@@ -4361,12 +4361,12 @@
         <v>429</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>151</v>
@@ -4378,12 +4378,12 @@
         <v>429</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>152</v>
@@ -4395,12 +4395,12 @@
         <v>429</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>153</v>
@@ -4412,12 +4412,12 @@
         <v>429</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>154</v>
@@ -4429,12 +4429,12 @@
         <v>429</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>155</v>
@@ -4446,12 +4446,12 @@
         <v>429</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>156</v>
@@ -4463,12 +4463,12 @@
         <v>429</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>157</v>
@@ -4480,12 +4480,12 @@
         <v>429</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>158</v>
@@ -4497,12 +4497,12 @@
         <v>429</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>159</v>
@@ -4514,12 +4514,12 @@
         <v>429</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>160</v>
@@ -4531,12 +4531,12 @@
         <v>429</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>161</v>
@@ -4548,12 +4548,12 @@
         <v>429</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>162</v>
@@ -4565,12 +4565,12 @@
         <v>429</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>163</v>
@@ -4582,12 +4582,12 @@
         <v>429</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>164</v>
@@ -4599,12 +4599,12 @@
         <v>429</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>165</v>
@@ -4616,12 +4616,12 @@
         <v>429</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>166</v>
@@ -4633,12 +4633,12 @@
         <v>429</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>167</v>
@@ -4650,12 +4650,12 @@
         <v>429</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>168</v>
@@ -4667,12 +4667,12 @@
         <v>429</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>169</v>
@@ -4684,12 +4684,12 @@
         <v>429</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>170</v>
@@ -4701,12 +4701,12 @@
         <v>429</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>171</v>
@@ -4718,12 +4718,12 @@
         <v>429</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>172</v>
@@ -4735,12 +4735,12 @@
         <v>429</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>173</v>
@@ -4752,12 +4752,12 @@
         <v>429</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>174</v>
@@ -4769,12 +4769,12 @@
         <v>429</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>175</v>
@@ -4786,12 +4786,12 @@
         <v>429</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>176</v>
@@ -4803,12 +4803,12 @@
         <v>429</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>177</v>
@@ -4820,12 +4820,12 @@
         <v>429</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>178</v>
@@ -4837,12 +4837,12 @@
         <v>429</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>179</v>
@@ -4854,12 +4854,12 @@
         <v>429</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>180</v>
@@ -4871,12 +4871,12 @@
         <v>429</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>181</v>
@@ -4888,12 +4888,12 @@
         <v>429</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>182</v>
@@ -4905,12 +4905,12 @@
         <v>429</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>183</v>
@@ -4922,12 +4922,12 @@
         <v>429</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>184</v>
@@ -4939,12 +4939,12 @@
         <v>429</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>185</v>
@@ -4956,12 +4956,12 @@
         <v>429</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>186</v>
@@ -4973,12 +4973,12 @@
         <v>429</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>187</v>
@@ -4990,12 +4990,12 @@
         <v>429</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B185" s="8" t="s">
         <v>188</v>
@@ -5007,12 +5007,12 @@
         <v>429</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>189</v>
@@ -5024,12 +5024,12 @@
         <v>429</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>190</v>
@@ -5041,12 +5041,12 @@
         <v>429</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>191</v>
@@ -5058,12 +5058,12 @@
         <v>429</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>192</v>
@@ -5075,12 +5075,12 @@
         <v>429</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B190" s="8" t="s">
         <v>193</v>
@@ -5092,12 +5092,12 @@
         <v>429</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>194</v>
@@ -5109,12 +5109,12 @@
         <v>429</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>195</v>
@@ -5126,12 +5126,12 @@
         <v>429</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>196</v>
@@ -5143,12 +5143,12 @@
         <v>429</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>197</v>
@@ -5160,12 +5160,12 @@
         <v>429</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>198</v>
@@ -5177,12 +5177,12 @@
         <v>429</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>199</v>
@@ -5194,12 +5194,12 @@
         <v>429</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>200</v>
@@ -5211,12 +5211,12 @@
         <v>429</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>201</v>
@@ -5228,12 +5228,12 @@
         <v>429</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>202</v>
@@ -5245,12 +5245,12 @@
         <v>429</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>203</v>
@@ -5262,12 +5262,12 @@
         <v>429</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>204</v>
@@ -5279,12 +5279,12 @@
         <v>429</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>205</v>
@@ -5296,12 +5296,12 @@
         <v>429</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>206</v>
@@ -5313,12 +5313,12 @@
         <v>429</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>207</v>
@@ -5330,12 +5330,12 @@
         <v>429</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>208</v>
@@ -5347,12 +5347,12 @@
         <v>429</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>209</v>
@@ -5364,12 +5364,12 @@
         <v>429</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>210</v>
@@ -5381,12 +5381,12 @@
         <v>429</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>211</v>
@@ -5398,12 +5398,12 @@
         <v>429</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>212</v>
@@ -5415,12 +5415,12 @@
         <v>429</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>213</v>
@@ -5432,12 +5432,12 @@
         <v>429</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>214</v>
@@ -5449,12 +5449,12 @@
         <v>429</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>215</v>
@@ -5466,12 +5466,12 @@
         <v>429</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>216</v>
@@ -5483,12 +5483,12 @@
         <v>429</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>217</v>
@@ -5500,12 +5500,12 @@
         <v>429</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>218</v>
@@ -5517,12 +5517,12 @@
         <v>429</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>219</v>
@@ -5534,12 +5534,12 @@
         <v>429</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B217" s="8" t="s">
         <v>220</v>
@@ -5551,12 +5551,12 @@
         <v>429</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B218" s="8" t="s">
         <v>221</v>
@@ -5568,12 +5568,12 @@
         <v>429</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>222</v>
@@ -5585,12 +5585,12 @@
         <v>429</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B220" s="8" t="s">
         <v>223</v>
@@ -5602,12 +5602,12 @@
         <v>429</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>224</v>
@@ -5619,12 +5619,12 @@
         <v>429</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B222" s="8" t="s">
         <v>225</v>
@@ -5636,12 +5636,12 @@
         <v>429</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B223" s="8" t="s">
         <v>226</v>
@@ -5653,12 +5653,12 @@
         <v>429</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B224" s="8" t="s">
         <v>227</v>
@@ -5670,12 +5670,12 @@
         <v>429</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>228</v>
@@ -5687,12 +5687,12 @@
         <v>429</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B226" s="8" t="s">
         <v>229</v>
@@ -5704,12 +5704,12 @@
         <v>429</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B227" s="8" t="s">
         <v>230</v>
@@ -5721,12 +5721,12 @@
         <v>429</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>231</v>
@@ -5738,12 +5738,12 @@
         <v>429</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B229" s="8" t="s">
         <v>232</v>
@@ -5755,12 +5755,12 @@
         <v>429</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B230" s="8" t="s">
         <v>233</v>
@@ -5772,12 +5772,12 @@
         <v>429</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B231" s="8" t="s">
         <v>234</v>
@@ -5789,12 +5789,12 @@
         <v>429</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B232" s="8" t="s">
         <v>235</v>
@@ -5806,12 +5806,12 @@
         <v>429</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B233" s="8" t="s">
         <v>236</v>
@@ -5823,12 +5823,12 @@
         <v>429</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>237</v>
@@ -5840,12 +5840,12 @@
         <v>429</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B235" s="8" t="s">
         <v>238</v>
@@ -5857,12 +5857,12 @@
         <v>429</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>239</v>
@@ -5874,12 +5874,12 @@
         <v>429</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>240</v>
@@ -5891,12 +5891,12 @@
         <v>429</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B238" s="8" t="s">
         <v>241</v>
@@ -5908,12 +5908,12 @@
         <v>429</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B239" s="8" t="s">
         <v>242</v>
@@ -5925,12 +5925,12 @@
         <v>429</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>243</v>
@@ -5942,12 +5942,12 @@
         <v>429</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B241" s="8" t="s">
         <v>244</v>
@@ -5959,12 +5959,12 @@
         <v>429</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>245</v>
@@ -5976,12 +5976,12 @@
         <v>429</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>246</v>
@@ -5993,12 +5993,12 @@
         <v>429</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B244" s="8" t="s">
         <v>247</v>
@@ -6010,12 +6010,12 @@
         <v>429</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B245" s="8" t="s">
         <v>248</v>
@@ -6027,12 +6027,12 @@
         <v>429</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>249</v>
@@ -6044,12 +6044,12 @@
         <v>429</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B247" s="8" t="s">
         <v>250</v>
@@ -6061,12 +6061,12 @@
         <v>429</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>251</v>
@@ -6078,12 +6078,12 @@
         <v>429</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>252</v>
@@ -6095,12 +6095,12 @@
         <v>429</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>253</v>
@@ -6112,12 +6112,12 @@
         <v>429</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>254</v>
@@ -6129,12 +6129,12 @@
         <v>429</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>255</v>
@@ -6146,12 +6146,12 @@
         <v>429</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B253" s="8" t="s">
         <v>256</v>
@@ -6163,12 +6163,12 @@
         <v>429</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B254" s="8" t="s">
         <v>257</v>
@@ -6180,12 +6180,12 @@
         <v>429</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>258</v>
@@ -6197,12 +6197,12 @@
         <v>429</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>259</v>
@@ -6214,12 +6214,12 @@
         <v>429</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B257" s="8" t="s">
         <v>260</v>
@@ -6231,12 +6231,12 @@
         <v>429</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>261</v>
@@ -6248,12 +6248,12 @@
         <v>429</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B259" s="8" t="s">
         <v>262</v>
@@ -6265,12 +6265,12 @@
         <v>429</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>263</v>
@@ -6282,12 +6282,12 @@
         <v>429</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>264</v>
@@ -6299,12 +6299,12 @@
         <v>429</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B262" s="8" t="s">
         <v>265</v>
@@ -6316,12 +6316,12 @@
         <v>429</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>266</v>
@@ -6333,12 +6333,12 @@
         <v>429</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>267</v>
@@ -6350,12 +6350,12 @@
         <v>429</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>268</v>
@@ -6367,12 +6367,12 @@
         <v>429</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>269</v>
@@ -6384,12 +6384,12 @@
         <v>430</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>270</v>
@@ -6401,12 +6401,12 @@
         <v>430</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B268" s="8" t="s">
         <v>271</v>
@@ -6418,12 +6418,12 @@
         <v>430</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>272</v>
@@ -6435,12 +6435,12 @@
         <v>430</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>273</v>
@@ -6452,12 +6452,12 @@
         <v>430</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>274</v>
@@ -6469,12 +6469,12 @@
         <v>430</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B272" s="8" t="s">
         <v>275</v>
@@ -6486,12 +6486,12 @@
         <v>430</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>276</v>
@@ -6503,12 +6503,12 @@
         <v>430</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B274" s="8" t="s">
         <v>277</v>
@@ -6520,12 +6520,12 @@
         <v>430</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>278</v>
@@ -6537,12 +6537,12 @@
         <v>430</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>279</v>
@@ -6554,12 +6554,12 @@
         <v>430</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B277" s="8" t="s">
         <v>280</v>
@@ -6571,12 +6571,12 @@
         <v>430</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B278" s="8" t="s">
         <v>281</v>
@@ -6588,12 +6588,12 @@
         <v>430</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B279" s="8" t="s">
         <v>282</v>
@@ -6605,12 +6605,12 @@
         <v>430</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B280" s="8" t="s">
         <v>283</v>
@@ -6622,12 +6622,12 @@
         <v>430</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B281" s="8" t="s">
         <v>284</v>
@@ -6639,12 +6639,12 @@
         <v>430</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B282" s="8" t="s">
         <v>285</v>
@@ -6656,12 +6656,12 @@
         <v>430</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B283" s="8" t="s">
         <v>286</v>
@@ -6673,12 +6673,12 @@
         <v>430</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>287</v>
@@ -6690,12 +6690,12 @@
         <v>430</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B285" s="8" t="s">
         <v>288</v>
@@ -6707,12 +6707,12 @@
         <v>430</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B286" s="8" t="s">
         <v>289</v>
@@ -6724,12 +6724,12 @@
         <v>430</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B287" s="8" t="s">
         <v>290</v>
@@ -6741,12 +6741,12 @@
         <v>430</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B288" s="8" t="s">
         <v>291</v>
@@ -6758,12 +6758,12 @@
         <v>430</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B289" s="8" t="s">
         <v>292</v>
@@ -6775,12 +6775,12 @@
         <v>430</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>293</v>
@@ -6792,12 +6792,12 @@
         <v>430</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>294</v>
@@ -6809,12 +6809,12 @@
         <v>430</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B292" s="8" t="s">
         <v>295</v>
@@ -6826,12 +6826,12 @@
         <v>430</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B293" s="8" t="s">
         <v>296</v>
@@ -6843,12 +6843,12 @@
         <v>430</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>297</v>
@@ -6860,12 +6860,12 @@
         <v>430</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B295" s="8" t="s">
         <v>298</v>
@@ -6877,12 +6877,12 @@
         <v>431</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B296" s="8" t="s">
         <v>299</v>
@@ -6894,12 +6894,12 @@
         <v>431</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>300</v>
@@ -6911,12 +6911,12 @@
         <v>431</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B298" s="8" t="s">
         <v>301</v>
@@ -6928,12 +6928,12 @@
         <v>431</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B299" s="8" t="s">
         <v>302</v>
@@ -6945,12 +6945,12 @@
         <v>431</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B300" s="8" t="s">
         <v>303</v>
@@ -6962,12 +6962,12 @@
         <v>431</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B301" s="8" t="s">
         <v>304</v>
@@ -6979,12 +6979,12 @@
         <v>431</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B302" s="8" t="s">
         <v>305</v>
@@ -6996,12 +6996,12 @@
         <v>431</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>306</v>
@@ -7013,12 +7013,12 @@
         <v>431</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B304" s="8" t="s">
         <v>307</v>
@@ -7030,12 +7030,12 @@
         <v>431</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B305" s="8" t="s">
         <v>308</v>
@@ -7047,12 +7047,12 @@
         <v>431</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>309</v>
@@ -7064,12 +7064,12 @@
         <v>431</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B307" s="8" t="s">
         <v>310</v>
@@ -7081,12 +7081,12 @@
         <v>431</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B308" s="8" t="s">
         <v>311</v>
@@ -7098,12 +7098,12 @@
         <v>431</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B309" s="8" t="s">
         <v>312</v>
@@ -7115,12 +7115,12 @@
         <v>431</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B310" s="8" t="s">
         <v>313</v>
@@ -7132,12 +7132,12 @@
         <v>431</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B311" s="8" t="s">
         <v>314</v>
@@ -7149,12 +7149,12 @@
         <v>431</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B312" s="8" t="s">
         <v>315</v>
@@ -7166,12 +7166,12 @@
         <v>431</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B313" s="8" t="s">
         <v>316</v>
@@ -7183,12 +7183,12 @@
         <v>431</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B314" s="8" t="s">
         <v>317</v>
@@ -7200,12 +7200,12 @@
         <v>431</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B315" s="8" t="s">
         <v>318</v>
@@ -7217,12 +7217,12 @@
         <v>431</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B316" s="8" t="s">
         <v>319</v>
@@ -7234,12 +7234,12 @@
         <v>431</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B317" s="8" t="s">
         <v>320</v>
@@ -7251,12 +7251,12 @@
         <v>431</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B318" s="8" t="s">
         <v>321</v>
@@ -7268,12 +7268,12 @@
         <v>431</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B319" s="8" t="s">
         <v>322</v>
@@ -7285,12 +7285,12 @@
         <v>431</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B320" s="8" t="s">
         <v>323</v>
@@ -7302,12 +7302,12 @@
         <v>431</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B321" s="8" t="s">
         <v>324</v>
@@ -7319,12 +7319,12 @@
         <v>431</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B322" s="8" t="s">
         <v>325</v>
@@ -7336,12 +7336,12 @@
         <v>431</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B323" s="8" t="s">
         <v>326</v>
@@ -7353,12 +7353,12 @@
         <v>431</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B324" s="8" t="s">
         <v>327</v>
@@ -7370,12 +7370,12 @@
         <v>431</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B325" s="8" t="s">
         <v>328</v>
@@ -7387,12 +7387,12 @@
         <v>431</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B326" s="8" t="s">
         <v>329</v>
@@ -7404,12 +7404,12 @@
         <v>431</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B327" s="8" t="s">
         <v>330</v>
@@ -7421,12 +7421,12 @@
         <v>431</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B328" s="8" t="s">
         <v>331</v>
@@ -7438,12 +7438,12 @@
         <v>431</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B329" s="8" t="s">
         <v>332</v>
@@ -7455,12 +7455,12 @@
         <v>431</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B330" s="8" t="s">
         <v>333</v>
@@ -7472,12 +7472,12 @@
         <v>431</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B331" s="8" t="s">
         <v>334</v>
@@ -7489,12 +7489,12 @@
         <v>431</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B332" s="8" t="s">
         <v>335</v>
@@ -7506,12 +7506,12 @@
         <v>431</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B333" s="8" t="s">
         <v>336</v>
@@ -7520,15 +7520,15 @@
         <v>81</v>
       </c>
       <c r="D333" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B334" s="8" t="s">
         <v>337</v>
@@ -7537,15 +7537,15 @@
         <v>153</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B335" s="8" t="s">
         <v>338</v>
@@ -7554,15 +7554,15 @@
         <v>168</v>
       </c>
       <c r="D335" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B336" s="8" t="s">
         <v>339</v>
@@ -7571,15 +7571,15 @@
         <v>189</v>
       </c>
       <c r="D336" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B337" s="8" t="s">
         <v>340</v>
@@ -7588,15 +7588,15 @@
         <v>205</v>
       </c>
       <c r="D337" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B338" s="8" t="s">
         <v>341</v>
@@ -7605,15 +7605,15 @@
         <v>330</v>
       </c>
       <c r="D338" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B339" s="8" t="s">
         <v>342</v>
@@ -7622,15 +7622,15 @@
         <v>427</v>
       </c>
       <c r="D339" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B340" s="8" t="s">
         <v>343</v>
@@ -7639,15 +7639,15 @@
         <v>464</v>
       </c>
       <c r="D340" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B341" s="8" t="s">
         <v>344</v>
@@ -7656,15 +7656,15 @@
         <v>565</v>
       </c>
       <c r="D341" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B342" s="8" t="s">
         <v>345</v>
@@ -7673,15 +7673,15 @@
         <v>595</v>
       </c>
       <c r="D342" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B343" s="8" t="s">
         <v>346</v>
@@ -7690,15 +7690,15 @@
         <v>632</v>
       </c>
       <c r="D343" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B344" s="8" t="s">
         <v>347</v>
@@ -7707,15 +7707,15 @@
         <v>762</v>
       </c>
       <c r="D344" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B345" s="8" t="s">
         <v>348</v>
@@ -7724,15 +7724,15 @@
         <v>895</v>
       </c>
       <c r="D345" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E345" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B346" s="8" t="s">
         <v>349</v>
@@ -7741,15 +7741,15 @@
         <v>1030</v>
       </c>
       <c r="D346" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E346" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B347" s="8" t="s">
         <v>350</v>
@@ -7758,15 +7758,15 @@
         <v>1125</v>
       </c>
       <c r="D347" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E347" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B348" s="8" t="s">
         <v>351</v>
@@ -7775,15 +7775,15 @@
         <v>1160</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E348" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B349" s="8" t="s">
         <v>352</v>
@@ -7792,15 +7792,15 @@
         <v>1246</v>
       </c>
       <c r="D349" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E349" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B350" s="8" t="s">
         <v>353</v>
@@ -7809,15 +7809,15 @@
         <v>1310</v>
       </c>
       <c r="D350" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E350" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B351" s="8" t="s">
         <v>354</v>
@@ -7826,15 +7826,15 @@
         <v>1321</v>
       </c>
       <c r="D351" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E351" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B352" s="8" t="s">
         <v>355</v>
@@ -7843,15 +7843,15 @@
         <v>1336</v>
       </c>
       <c r="D352" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B353" s="8" t="s">
         <v>356</v>
@@ -7860,15 +7860,15 @@
         <v>1538</v>
       </c>
       <c r="D353" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B354" s="8" t="s">
         <v>357</v>
@@ -7877,15 +7877,15 @@
         <v>1863</v>
       </c>
       <c r="D354" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E354" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B355" s="8" t="s">
         <v>358</v>
@@ -7894,15 +7894,15 @@
         <v>1179</v>
       </c>
       <c r="D355" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B356" s="8" t="s">
         <v>359</v>
@@ -7911,15 +7911,15 @@
         <v>2357</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B357" s="8" t="s">
         <v>360</v>
@@ -7928,15 +7928,15 @@
         <v>743</v>
       </c>
       <c r="D357" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B358" s="8" t="s">
         <v>361</v>
@@ -7945,15 +7945,15 @@
         <v>1690</v>
       </c>
       <c r="D358" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B359" s="8" t="s">
         <v>362</v>
@@ -7962,15 +7962,15 @@
         <v>12443</v>
       </c>
       <c r="D359" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B360" s="8" t="s">
         <v>363</v>
@@ -7979,15 +7979,15 @@
         <v>12022</v>
       </c>
       <c r="D360" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E360" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B361" s="8" t="s">
         <v>364</v>
@@ -7996,15 +7996,15 @@
         <v>11320</v>
       </c>
       <c r="D361" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E361" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B362" s="8" t="s">
         <v>365</v>
@@ -8013,15 +8013,15 @@
         <v>9705</v>
       </c>
       <c r="D362" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E362" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B363" s="8" t="s">
         <v>366</v>
@@ -8030,15 +8030,15 @@
         <v>9662</v>
       </c>
       <c r="D363" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E363" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B364" s="8" t="s">
         <v>367</v>
@@ -8047,15 +8047,15 @@
         <v>8845</v>
       </c>
       <c r="D364" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E364" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B365" s="8" t="s">
         <v>368</v>
@@ -8064,15 +8064,15 @@
         <v>8167</v>
       </c>
       <c r="D365" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E365" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B366" s="8" t="s">
         <v>369</v>
@@ -8081,15 +8081,15 @@
         <v>7618</v>
       </c>
       <c r="D366" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E366" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B367" s="8" t="s">
         <v>370</v>
@@ -8098,15 +8098,15 @@
         <v>6902</v>
       </c>
       <c r="D367" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E367" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B368" s="8" t="s">
         <v>371</v>
@@ -8115,15 +8115,15 @@
         <v>6554</v>
       </c>
       <c r="D368" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E368" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B369" s="8" t="s">
         <v>372</v>
@@ -8132,15 +8132,15 @@
         <v>459</v>
       </c>
       <c r="D369" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E369" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B370" s="8" t="s">
         <v>373</v>
@@ -8149,15 +8149,15 @@
         <v>19453</v>
       </c>
       <c r="D370" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E370" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B371" s="8" t="s">
         <v>374</v>
@@ -8166,15 +8166,15 @@
         <v>9917</v>
       </c>
       <c r="D371" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E371" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B372" s="8" t="s">
         <v>375</v>
@@ -8183,15 +8183,15 @@
         <v>7931</v>
       </c>
       <c r="D372" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E372" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B373" s="8" t="s">
         <v>376</v>
@@ -8200,15 +8200,15 @@
         <v>11977</v>
       </c>
       <c r="D373" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E373" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B374" s="8" t="s">
         <v>377</v>
@@ -8217,15 +8217,15 @@
         <v>10756</v>
       </c>
       <c r="D374" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E374" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B375" s="8" t="s">
         <v>378</v>
@@ -8234,15 +8234,15 @@
         <v>6049</v>
       </c>
       <c r="D375" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E375" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B376" s="8" t="s">
         <v>379</v>
@@ -8251,15 +8251,15 @@
         <v>5118</v>
       </c>
       <c r="D376" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E376" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B377" s="8" t="s">
         <v>380</v>
@@ -8268,15 +8268,15 @@
         <v>4797</v>
       </c>
       <c r="D377" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E377" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>381</v>
@@ -8285,15 +8285,15 @@
         <v>4155</v>
       </c>
       <c r="D378" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E378" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B379" s="8" t="s">
         <v>382</v>
@@ -8302,15 +8302,15 @@
         <v>2045</v>
       </c>
       <c r="D379" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E379" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B380" s="8" t="s">
         <v>383</v>
@@ -8319,15 +8319,15 @@
         <v>50</v>
       </c>
       <c r="D380" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E380" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B381" s="8" t="s">
         <v>384</v>
@@ -8336,15 +8336,15 @@
         <v>94</v>
       </c>
       <c r="D381" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B382" s="8" t="s">
         <v>385</v>
@@ -8353,15 +8353,15 @@
         <v>277</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E382" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B383" s="8" t="s">
         <v>386</v>
@@ -8370,15 +8370,15 @@
         <v>492</v>
       </c>
       <c r="D383" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E383" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B384" s="8" t="s">
         <v>387</v>
@@ -8387,15 +8387,15 @@
         <v>537</v>
       </c>
       <c r="D384" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E384" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B385" s="8" t="s">
         <v>388</v>
@@ -8404,15 +8404,15 @@
         <v>572</v>
       </c>
       <c r="D385" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E385" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B386" s="8" t="s">
         <v>389</v>
@@ -8421,15 +8421,15 @@
         <v>578</v>
       </c>
       <c r="D386" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E386" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B387" s="8" t="s">
         <v>390</v>
@@ -8438,15 +8438,15 @@
         <v>633</v>
       </c>
       <c r="D387" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E387" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B388" s="8" t="s">
         <v>391</v>
@@ -8455,15 +8455,15 @@
         <v>733</v>
       </c>
       <c r="D388" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E388" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B389" s="8" t="s">
         <v>392</v>
@@ -8472,15 +8472,15 @@
         <v>758</v>
       </c>
       <c r="D389" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E389" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B390" s="8" t="s">
         <v>393</v>
@@ -8489,15 +8489,15 @@
         <v>809</v>
       </c>
       <c r="D390" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E390" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B391" s="8" t="s">
         <v>394</v>
@@ -8506,15 +8506,15 @@
         <v>815</v>
       </c>
       <c r="D391" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E391" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B392" s="8" t="s">
         <v>395</v>
@@ -8523,15 +8523,15 @@
         <v>993</v>
       </c>
       <c r="D392" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E392" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B393" s="8" t="s">
         <v>396</v>
@@ -8540,15 +8540,15 @@
         <v>998</v>
       </c>
       <c r="D393" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E393" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B394" s="8" t="s">
         <v>397</v>
@@ -8557,15 +8557,15 @@
         <v>1167</v>
       </c>
       <c r="D394" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E394" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B395" s="8" t="s">
         <v>398</v>
@@ -8574,15 +8574,15 @@
         <v>1220</v>
       </c>
       <c r="D395" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E395" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B396" s="8" t="s">
         <v>399</v>
@@ -8591,15 +8591,15 @@
         <v>1871</v>
       </c>
       <c r="D396" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E396" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B397" s="8" t="s">
         <v>400</v>
@@ -8608,15 +8608,15 @@
         <v>1923</v>
       </c>
       <c r="D397" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E397" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B398" s="8" t="s">
         <v>401</v>
@@ -8625,15 +8625,15 @@
         <v>2273</v>
       </c>
       <c r="D398" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E398" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B399" s="8" t="s">
         <v>402</v>
@@ -8642,15 +8642,15 @@
         <v>2786</v>
       </c>
       <c r="D399" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E399" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B400" s="8" t="s">
         <v>403</v>
@@ -8659,15 +8659,15 @@
         <v>2799</v>
       </c>
       <c r="D400" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E400" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B401" s="8" t="s">
         <v>404</v>
@@ -8676,15 +8676,15 @@
         <v>3231</v>
       </c>
       <c r="D401" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E401" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B402" s="8" t="s">
         <v>405</v>
@@ -8693,15 +8693,15 @@
         <v>3337</v>
       </c>
       <c r="D402" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E402" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B403" s="8" t="s">
         <v>406</v>
@@ -8710,15 +8710,15 @@
         <v>3340</v>
       </c>
       <c r="D403" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E403" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B404" s="8" t="s">
         <v>407</v>
@@ -8727,15 +8727,15 @@
         <v>3479</v>
       </c>
       <c r="D404" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E404" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B405" s="8" t="s">
         <v>408</v>
@@ -8744,15 +8744,15 @@
         <v>3709</v>
       </c>
       <c r="D405" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E405" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B406" s="8" t="s">
         <v>409</v>
@@ -8761,15 +8761,15 @@
         <v>3728</v>
       </c>
       <c r="D406" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E406" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B407" s="8" t="s">
         <v>410</v>
@@ -8778,15 +8778,15 @@
         <v>3745</v>
       </c>
       <c r="D407" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E407" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B408" s="8" t="s">
         <v>411</v>
@@ -8795,15 +8795,15 @@
         <v>3844</v>
       </c>
       <c r="D408" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E408" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B409" s="8" t="s">
         <v>412</v>
@@ -8812,15 +8812,15 @@
         <v>3949</v>
       </c>
       <c r="D409" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E409" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B410" s="8" t="s">
         <v>413</v>
@@ -8829,15 +8829,15 @@
         <v>3956</v>
       </c>
       <c r="D410" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E410" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B411" s="8" t="s">
         <v>414</v>
@@ -8846,15 +8846,15 @@
         <v>4336</v>
       </c>
       <c r="D411" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E411" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B412" s="8" t="s">
         <v>415</v>
@@ -8863,15 +8863,15 @@
         <v>4490</v>
       </c>
       <c r="D412" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E412" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B413" s="8" t="s">
         <v>416</v>
@@ -8880,15 +8880,15 @@
         <v>4496</v>
       </c>
       <c r="D413" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E413" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B414" s="8" t="s">
         <v>417</v>
@@ -8897,15 +8897,15 @@
         <v>4539</v>
       </c>
       <c r="D414" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E414" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B415" s="8" t="s">
         <v>418</v>
@@ -8914,15 +8914,15 @@
         <v>4569</v>
       </c>
       <c r="D415" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E415" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B416" s="8" t="s">
         <v>419</v>
@@ -8931,15 +8931,15 @@
         <v>4902</v>
       </c>
       <c r="D416" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E416" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B417" s="8" t="s">
         <v>420</v>
@@ -8948,15 +8948,15 @@
         <v>4939</v>
       </c>
       <c r="D417" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E417" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B418" s="8" t="s">
         <v>421</v>
@@ -8965,15 +8965,15 @@
         <v>5024</v>
       </c>
       <c r="D418" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E418" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B419" s="8" t="s">
         <v>422</v>
@@ -8982,15 +8982,15 @@
         <v>5396</v>
       </c>
       <c r="D419" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E419" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B420" s="8" t="s">
         <v>423</v>
@@ -8999,15 +8999,15 @@
         <v>1797</v>
       </c>
       <c r="D420" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E420" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B421" s="8" t="s">
         <v>424</v>
@@ -9016,15 +9016,15 @@
         <v>949</v>
       </c>
       <c r="D421" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E421" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B422" s="8" t="s">
         <v>425</v>
@@ -9033,15 +9033,15 @@
         <v>615</v>
       </c>
       <c r="D422" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E422" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B423" s="8" t="s">
         <v>426</v>
@@ -9050,15 +9050,15 @@
         <v>837</v>
       </c>
       <c r="D423" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E423" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B424" s="8" t="s">
         <v>427</v>
@@ -9067,14 +9067,13 @@
         <v>188</v>
       </c>
       <c r="D424" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E424" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E424" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RQ2&RQ3/taxonomy of database access bugs.xlsx
+++ b/RQ2&RQ3/taxonomy of database access bugs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\projects\empirical-db-issue-paper\open data\RQ2&amp;RQ3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\concordia\Desktop\New folder\empirical-db-issue-data\RQ2&amp;RQ3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36102FC0-82D8-44E0-8102-931F269769EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9B157F-F182-40B7-86D6-6FA02B1D10F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23040" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1856,16 +1856,16 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="31.54296875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="28" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>454</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>454</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>454</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>454</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>454</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>454</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>454</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>454</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>454</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>455</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>456</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>456</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>456</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>456</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>456</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>457</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>457</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>458</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>458</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>458</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>459</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>459</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>460</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>457</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>457</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>457</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>454</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>460</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>460</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>457</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>457</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>458</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>458</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>458</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>459</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>460</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>460</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>456</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>456</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>456</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>456</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>456</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>456</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>457</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>457</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>457</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>460</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>460</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>460</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>457</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>456</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>458</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>458</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>458</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>458</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>458</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>459</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>456</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>456</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>456</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>455</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>460</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>455</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>455</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>455</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>456</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>457</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>457</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>457</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>455</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>455</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>460</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>460</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>455</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>456</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>460</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>455</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>455</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>455</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>458</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>458</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>460</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>455</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>455</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>455</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>454</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>456</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>460</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>458</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>459</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>457</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>460</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>460</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>460</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>460</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>457</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>459</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>455</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>460</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>460</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>460</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>455</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>456</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>456</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>456</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>460</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>460</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>460</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>460</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>454</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>455</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>460</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>457</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>458</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>454</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>457</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>460</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>460</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>454</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>460</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>459</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>459</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>455</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>456</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>459</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>460</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>460</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>460</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>457</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>457</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>460</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>460</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>460</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>460</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>460</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>460</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>460</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>454</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>459</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>455</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>457</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>460</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>454</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>456</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>457</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>460</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>459</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>456</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>457</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>456</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>455</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>460</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>460</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>460</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>460</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>460</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>460</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>460</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>459</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>455</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>457</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>458</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>455</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>459</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>459</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>459</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>459</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>460</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>459</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>460</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>455</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>460</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>460</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>459</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>456</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>455</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>460</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>456</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>460</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>459</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>459</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>455</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>459</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>459</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>460</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>455</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>457</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>459</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>459</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>460</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>460</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>455</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>460</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>460</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>455</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>455</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>455</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>457</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>458</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>460</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>457</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>457</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>455</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>460</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>457</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>458</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>458</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>455</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>458</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>455</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>455</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>458</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>458</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>458</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>455</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>455</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>455</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>455</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>457</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>455</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>457</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>457</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>457</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>455</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>455</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>457</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>455</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>455</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>455</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>455</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>455</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>455</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>455</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>456</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>455</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>455</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>455</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>455</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>456</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>455</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>455</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>455</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>455</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>455</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>455</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>455</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>455</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>455</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>455</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>455</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>455</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>455</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>455</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>456</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>455</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>455</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>456</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>456</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>456</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>454</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>454</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>455</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>455</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>455</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>454</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>454</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>454</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>454</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>454</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>454</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>454</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>454</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>455</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>455</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>455</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>455</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>455</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
         <v>456</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>456</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>456</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>456</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>458</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>459</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>459</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>459</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>459</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>459</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>459</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>459</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>457</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>457</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>457</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>454</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>455</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>455</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>455</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>455</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>455</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>455</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>455</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>455</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>456</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
         <v>456</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>456</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>459</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>459</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>459</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>459</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>459</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>459</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>454</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>454</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>454</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>454</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>454</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>454</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>457</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>455</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>455</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
         <v>455</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
         <v>454</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
         <v>457</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
         <v>455</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
         <v>455</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
         <v>455</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
         <v>455</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
         <v>455</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
         <v>455</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
         <v>454</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
         <v>455</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>455</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>454</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>454</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>454</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
         <v>454</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
         <v>454</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
         <v>454</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>454</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>454</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>454</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>454</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
         <v>454</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
         <v>454</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
         <v>454</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
         <v>454</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>454</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>454</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
         <v>454</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
         <v>454</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
         <v>454</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
         <v>454</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
         <v>454</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>458</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
         <v>458</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
         <v>458</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
         <v>460</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
         <v>460</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
         <v>455</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
         <v>455</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
         <v>455</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
         <v>455</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
         <v>455</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
         <v>455</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
         <v>455</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
         <v>455</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
         <v>455</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
         <v>455</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
         <v>455</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
         <v>456</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
         <v>456</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
         <v>456</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
         <v>456</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
         <v>456</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
         <v>456</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
         <v>456</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
         <v>456</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
         <v>456</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
         <v>456</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
         <v>457</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
         <v>457</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
         <v>457</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
         <v>457</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
         <v>457</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
         <v>457</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
         <v>457</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
         <v>457</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
         <v>457</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
         <v>457</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
         <v>457</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
         <v>457</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="4" t="s">
         <v>457</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="4" t="s">
         <v>457</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
         <v>457</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
         <v>457</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
         <v>457</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
         <v>457</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
         <v>457</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
         <v>457</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
         <v>457</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
         <v>457</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
         <v>457</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
         <v>457</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
         <v>457</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
         <v>457</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
         <v>457</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
         <v>457</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
         <v>457</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
         <v>457</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
         <v>457</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
         <v>457</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
         <v>457</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="4" t="s">
         <v>457</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="4" t="s">
         <v>457</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="4" t="s">
         <v>457</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="4" t="s">
         <v>457</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="4" t="s">
         <v>457</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="4" t="s">
         <v>457</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="4" t="s">
         <v>457</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="4" t="s">
         <v>459</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
         <v>459</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
         <v>459</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="4" t="s">
         <v>454</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="4" t="s">
         <v>459</v>
       </c>
